--- a/SampleProject/Common/Table/Upgrade.xlsx
+++ b/SampleProject/Common/Table/Upgrade.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>FieldName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATION_REPAIR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STATION_PICKUP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기지에서 체력회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기지가 픽업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,6 +284,62 @@
   </si>
   <si>
     <t>기지 투사체 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60lv max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40lv max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5lv max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10lv max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeMaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 고철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATION_SRTMT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +754,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="156.25" defaultRowHeight="16.5"/>
@@ -754,10 +802,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -793,10 +841,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -804,10 +852,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -815,12 +863,23 @@
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
     </row>
@@ -927,10 +986,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -940,37 +999,41 @@
     <col min="4" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="21.875" customWidth="1"/>
     <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
       </c>
       <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4">
         <v>1000</v>
@@ -984,16 +1047,22 @@
       <c r="G2" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4">
         <v>1001</v>
@@ -1007,16 +1076,22 @@
       <c r="G3" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4">
         <v>1002</v>
@@ -1030,16 +1105,22 @@
       <c r="G4" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
       </c>
       <c r="D5" s="4">
         <v>1003</v>
@@ -1048,21 +1129,30 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>-0.1</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G5" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
       </c>
       <c r="D6" s="4">
         <v>1004</v>
@@ -1076,16 +1166,25 @@
       <c r="G6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="4">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4">
         <v>1005</v>
@@ -1094,13 +1193,22 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>1006</v>
       </c>
@@ -1108,7 +1216,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4">
         <v>1006</v>
@@ -1123,7 +1231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>1007</v>
       </c>
@@ -1131,7 +1239,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4">
         <v>1007</v>
@@ -1146,12 +1254,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="B10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>2000</v>
       </c>
@@ -1159,7 +1267,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4">
         <v>2000</v>
@@ -1173,8 +1281,14 @@
       <c r="G11" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>2001</v>
       </c>
@@ -1182,7 +1296,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4">
         <v>2001</v>
@@ -1196,16 +1310,19 @@
       <c r="G12" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>2002</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4">
         <v>2002</v>
@@ -1217,18 +1334,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>2003</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4">
         <v>2003</v>
@@ -1240,18 +1363,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>2004</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4">
         <v>2004</v>
@@ -1274,6 +1403,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1282,7 +1417,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000D35F0660EE6674DABAC5443D9C951FD" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="6185788dbf46f4095245a0ae9322b0c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1128b5e-e246-4c58-9678-c7dd1c578c1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b7584c7b06a0d4298f51441718c0a53" ns2:_="">
     <xsd:import namespace="b1128b5e-e246-4c58-9678-c7dd1c578c1b"/>
@@ -1414,13 +1549,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9D1A86-93D6-4367-903A-B7D1F5096104}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1428,7 +1566,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F16014E8-B8D5-4093-B4D6-52EACBD27C9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1444,13 +1582,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>